--- a/FishBase/fishbase mappings.xlsx
+++ b/FishBase/fishbase mappings.xlsx
@@ -65,7 +65,7 @@
     <t>demersal</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01000024</t>
+    <t>http://eol.org/schema/terms/benthic</t>
   </si>
   <si>
     <t>pelagic</t>
